--- a/iShangkeProject/Design/transform.xlsx
+++ b/iShangkeProject/Design/transform.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="booking status " sheetId="3" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="course status" sheetId="4" r:id="rId3"/>
     <sheet name="course 操作 code" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t>状态名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,13 +461,29 @@
   </si>
   <si>
     <t>下线</t>
+  </si>
+  <si>
+    <t>onlinePaySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no use 和13重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +496,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -495,8 +532,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -504,14 +543,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -810,19 +851,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -833,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -844,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -855,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -866,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -877,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -888,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -899,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -910,7 +951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -921,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -932,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -943,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -954,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -965,7 +1006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -976,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -987,7 +1028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -998,7 +1039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1009,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1020,7 +1061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1031,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1042,7 +1083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1053,7 +1094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1064,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1075,7 +1116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1085,8 +1126,11 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1097,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1111,24 +1155,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1142,8 +1191,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1152,12 +1201,12 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1166,10 +1215,10 @@
       <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1178,10 +1227,10 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1190,10 +1239,10 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1202,10 +1251,10 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1214,12 +1263,12 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1228,10 +1277,10 @@
       <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1240,10 +1289,10 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1252,10 +1301,10 @@
       <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1264,10 +1313,10 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1276,10 +1325,10 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1288,10 +1337,10 @@
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1300,10 +1349,10 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1312,10 +1361,10 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1324,10 +1373,10 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1336,10 +1385,10 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1348,10 +1397,10 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1360,10 +1409,10 @@
       <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1372,10 +1421,10 @@
       <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1384,10 +1433,10 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1396,10 +1445,10 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1408,12 +1457,12 @@
       <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1422,10 +1471,10 @@
       <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1434,7 +1483,21 @@
       <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1444,7 +1507,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1456,14 +1524,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1474,7 +1542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1485,7 +1553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1496,7 +1564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1507,7 +1575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1518,7 +1586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1529,7 +1597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1540,7 +1608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1554,6 +1622,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1561,18 +1634,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1583,7 +1656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1594,7 +1667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1605,7 +1678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1616,7 +1689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1627,7 +1700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1638,7 +1711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1649,7 +1722,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1657,5 +1730,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/iShangkeProject/Design/transform.xlsx
+++ b/iShangkeProject/Design/transform.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
   <si>
     <t>状态名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,74 @@
   </si>
   <si>
     <t>no use 和13重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialSubmitBooking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialEnroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialPendingPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialEnrolled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交特卖支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialCancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialPayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialConfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1151,6 +1219,67 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1498,6 +1627,57 @@
       <c r="D26" t="s">
         <v>130</v>
       </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/iShangkeProject/Design/transform.xlsx
+++ b/iShangkeProject/Design/transform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="booking status " sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
   <si>
     <t>状态名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,55 +495,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialEnrolled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交特卖支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialCancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialPayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialConfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialPendingPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specialEnroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialPendingPayment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialEnrolled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交特卖支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialCancelled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialPayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialConfirmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,8 +604,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -617,9 +641,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1225,10 +1269,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1236,10 +1280,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1247,10 +1291,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1258,10 +1302,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1269,10 +1313,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1284,6 +1328,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1296,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1639,7 +1684,7 @@
         <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
         <v>133</v>
@@ -1650,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>135</v>
@@ -1664,10 +1709,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
